--- a/_CLUSTER/groups_time_area/PCA_time_coord/groups_counts_area4_Mz.xlsx
+++ b/_CLUSTER/groups_time_area/PCA_time_coord/groups_counts_area4_Mz.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -373,10 +373,42 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>15</v>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/_CLUSTER/groups_time_area/PCA_time_coord/groups_counts_area4_Mz.xlsx
+++ b/_CLUSTER/groups_time_area/PCA_time_coord/groups_counts_area4_Mz.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -373,10 +373,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -389,26 +389,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
